--- a/summaries/trials/ODoherty/lineages.xlsx
+++ b/summaries/trials/ODoherty/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,19 +23,25 @@
     <t xml:space="preserve">ODoherty|patient_A1|ImmunoComp_sim|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP9965</t>
   </si>
   <si>
     <t xml:space="preserve">ODoherty|patient_B1|ImmunoComp_sim|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP9964</t>
+  </si>
+  <si>
     <t xml:space="preserve">ODoherty|patient_C1|ImmunoComp_sim|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.509</t>
+    <t xml:space="preserve">VSP9963</t>
   </si>
   <si>
     <t xml:space="preserve">ODoherty|patient_SS26|Canine_sim|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9962</t>
   </si>
 </sst>
 </file>
@@ -388,23 +394,23 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
